--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/bufr_cnr_orphans_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/bufr_cnr_orphans_station_configuration_extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,17 +636,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>96171.csv</t>
+          <t>98558.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-20777-0-96171</t>
+          <t>0-20888-0-98558.csv</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96171</t>
+          <t>98558.csv</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[102.3167, 102.3167]</t>
+          <t>126.733</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0.4667, 0.4667]</t>
+          <t>11.033</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2014-10-12</t>
+          <t>20240206</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -834,17 +834,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>48877.csv</t>
+          <t>72291.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-20777-0-48877</t>
+          <t>0-20666-0-72291.csv</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>48877</t>
+          <t>72291.csv</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -885,16 +885,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[109.48, 109.48]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[12.108, 12.108]</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -902,12 +894,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>20141006</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>20160526</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1032,17 +1024,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>48870.csv</t>
+          <t>14420.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-20777-0-48870</t>
+          <t>0-20888-0-14420.csv</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1055,7 +1047,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>48870</t>
+          <t>14420.csv</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1085,12 +1077,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[109.78000000000002, 109.78000000000002]</t>
+          <t>25.2111</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[13.276000000000002, 13.276000000000002]</t>
+          <t>44.500800000000005</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1100,12 +1092,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2014-10-11</t>
+          <t>20160228</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>20160229</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1230,17 +1222,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>48914.csv</t>
+          <t>40186.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-20777-0-48914</t>
+          <t>0-20666-0-40186.csv</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1253,7 +1245,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>48914</t>
+          <t>40186.csv</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1281,16 +1273,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[105.54, 105.54]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[9.66, 9.66]</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1298,12 +1282,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2014-10-11</t>
+          <t>20141112</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1428,17 +1412,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>97460.csv</t>
+          <t>72381.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-20777-0-97460</t>
+          <t>0-20666-0-72381.csv</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1451,7 +1435,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>97460</t>
+          <t>72381.csv</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1479,16 +1463,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[124.55, 124.55]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[-1.6167, -1.6167]</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1496,12 +1472,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2014-10-11</t>
+          <t>20141009</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>20240228</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1626,17 +1602,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>96645.csv</t>
+          <t>70414.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-20666-0-96645</t>
+          <t>0-20888-0-70414.csv</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1649,7 +1625,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96645</t>
+          <t>70414.csv</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1677,8 +1653,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-174.11361000000002,174.10000000000002,174.11361000000002,174.11362000000003</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>52.71222,52.71,52.71222,52.71222</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1686,12 +1670,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1816,17 +1800,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>48887.csv</t>
+          <t>98747.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-20777-0-48887</t>
+          <t>0-20666-0-98747.csv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1839,7 +1823,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>48887</t>
+          <t>98747.csv</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1867,16 +1851,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[108.36, 108.36]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[10.336, 10.336]</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1884,12 +1860,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2014-10-11</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2014,7 +1990,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>72291.csv</t>
+          <t>98646.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2024,7 +2000,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-20666-0-72291</t>
+          <t>0-20666-0-98646.csv</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2037,7 +2013,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>72291</t>
+          <t>98646.csv</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2074,12 +2050,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2014-10-06</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2204,17 +2180,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40186.csv</t>
+          <t>57541.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-20666-0-40186</t>
+          <t>0-20888-0-57541.csv</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2227,7 +2203,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40186</t>
+          <t>57541.csv</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2255,8 +2231,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>109.47</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2264,12 +2248,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>20240204</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2394,17 +2378,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>98558.csv</t>
+          <t>42123.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-20777-0-98558</t>
+          <t>0-20888-0-42123.csv</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2417,7 +2401,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>98558</t>
+          <t>42123.csv</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2447,12 +2431,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[126.733, 126.733]</t>
+          <t>73.53</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[11.033, 11.033]</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2462,12 +2446,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>20240229</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2592,7 +2576,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>72381.csv</t>
+          <t>44292.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2602,7 +2586,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-20666-0-72381</t>
+          <t>0-20666-0-44292.csv</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2615,7 +2599,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>72381</t>
+          <t>44292.csv</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2652,12 +2636,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2014-10-09</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2782,17 +2766,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14420.csv</t>
+          <t>89859.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-20888-0-14420</t>
+          <t>0-20666-0-89859.csv</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2805,7 +2789,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14420</t>
+          <t>89859.csv</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2833,16 +2817,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>25.2111</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>44.500800000000005</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2850,12 +2826,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2016-02-28</t>
+          <t>20151110</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2016-02-29</t>
+          <t>20161004</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2980,7 +2956,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>98747.csv</t>
+          <t>98444.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2990,7 +2966,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-20666-0-98747</t>
+          <t>0-20666-0-98444.csv</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3003,7 +2979,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>98747</t>
+          <t>98444.csv</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3040,12 +3016,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240304</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3170,7 +3146,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>70414.csv</t>
+          <t>98618.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3180,7 +3156,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-20666-0-70414</t>
+          <t>0-20666-0-98618.csv</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3193,7 +3169,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>70414</t>
+          <t>98618.csv</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3230,12 +3206,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3360,7 +3336,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>57541.csv</t>
+          <t>23415.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3370,7 +3346,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-20888-0-57541</t>
+          <t>0-20888-0-23415.csv</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3383,7 +3359,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>57541</t>
+          <t>23415.csv</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3413,12 +3389,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>109.47</t>
+          <t>57.13333000000001,57.13333000000001,nan</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>65.11667,65.11666000000001,nan</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3428,12 +3404,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3558,7 +3534,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>98646.csv</t>
+          <t>42623.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3568,7 +3544,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-20666-0-98646</t>
+          <t>0-20666-0-42623.csv</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3581,7 +3557,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>98646</t>
+          <t>42623.csv</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3618,12 +3594,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141006</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3748,17 +3724,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>97120.csv</t>
+          <t>74002.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-20777-0-97120</t>
+          <t>0-20666-0-74002.csv</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3771,7 +3747,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>97120</t>
+          <t>74002.csv</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3799,16 +3775,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>[119.0, 119.0]</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>[-2.5, -2.5]</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3816,12 +3784,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2014-10-11</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3946,7 +3914,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>98618.csv</t>
+          <t>83554.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3956,7 +3924,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-20666-0-98618</t>
+          <t>0-20666-0-83554.csv</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3969,7 +3937,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>98618</t>
+          <t>83554.csv</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4006,12 +3974,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4136,17 +4104,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>42123.csv</t>
+          <t>83208.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-20777-0-42123</t>
+          <t>0-20666-0-83208.csv</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4159,7 +4127,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>42123</t>
+          <t>83208.csv</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4187,16 +4155,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[73.53, 73.53]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>[29.55, 29.55]</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -4204,12 +4164,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4334,17 +4294,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>83554.csv</t>
+          <t>37055.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-20666-0-83554</t>
+          <t>0-20888-0-37055.csv</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4357,7 +4317,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>83554</t>
+          <t>37055.csv</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4385,8 +4345,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>43.11722,nan</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>44.215,nan</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -4394,12 +4362,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4524,7 +4492,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>89859.csv</t>
+          <t>82411.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4534,7 +4502,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-20666-0-89859</t>
+          <t>0-20666-0-82411.csv</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4547,7 +4515,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>89859</t>
+          <t>82411.csv</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4584,12 +4552,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2015-11-10</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2016-10-04</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4714,7 +4682,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>42623.csv</t>
+          <t>83746.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4724,7 +4692,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-20666-0-42623</t>
+          <t>0-20666-0-83746.csv</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4737,7 +4705,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>42623</t>
+          <t>83746.csv</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4774,12 +4742,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2014-10-06</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4904,17 +4872,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>44292.csv</t>
+          <t>12123.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-20666-0-44292</t>
+          <t>0-20888-0-12123.csv</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4927,7 +4895,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>44292</t>
+          <t>12123.csv</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4955,8 +4923,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>115.02115,115.01696,114.15622,115.01439</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-61.00946,-60.9179,-61.661530000000006,-61.29339</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -4964,12 +4940,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20240205</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240206</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5094,7 +5070,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>98444.csv</t>
+          <t>72261.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5104,7 +5080,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-20666-0-98444</t>
+          <t>0-20666-0-72261.csv</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5117,7 +5093,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>98444</t>
+          <t>72261.csv</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5154,12 +5130,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5284,7 +5260,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>74002.csv</t>
+          <t>59431.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5294,7 +5270,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-20666-0-74002</t>
+          <t>0-20666-0-59431.csv</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5307,7 +5283,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>74002</t>
+          <t>59431.csv</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5344,12 +5320,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -5474,17 +5450,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>82411.csv</t>
+          <t>34467.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-20666-0-82411</t>
+          <t>0-20888-0-34467.csv</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5497,7 +5473,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>82411</t>
+          <t>34467.csv</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5525,8 +5501,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>44.34638,nan</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>48.788050000000005,nan</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5534,12 +5518,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5664,7 +5648,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>83746.csv</t>
+          <t>82244.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5674,7 +5658,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-20666-0-83746</t>
+          <t>0-20666-0-82244.csv</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5687,7 +5671,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>83746</t>
+          <t>82244.csv</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5724,12 +5708,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5854,7 +5838,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>59431.csv</t>
+          <t>83612.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5864,7 +5848,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-20666-0-59431</t>
+          <t>0-20666-0-83612.csv</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5877,7 +5861,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>59431</t>
+          <t>83612.csv</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5914,12 +5898,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -6044,7 +6028,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>98328.csv</t>
+          <t>83899.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6054,7 +6038,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-20666-0-98328</t>
+          <t>0-20666-0-83899.csv</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6067,7 +6051,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>98328</t>
+          <t>83899.csv</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6104,12 +6088,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -6234,7 +6218,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>72261.csv</t>
+          <t>98328.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6244,7 +6228,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-20666-0-72261</t>
+          <t>0-20666-0-98328.csv</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6257,7 +6241,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>72261</t>
+          <t>98328.csv</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6294,12 +6278,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240304</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -6424,17 +6408,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12123.csv</t>
+          <t>72469.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-20888-0-12123</t>
+          <t>0-20666-0-72469.csv</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6447,7 +6431,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12123</t>
+          <t>72469.csv</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6475,16 +6459,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>115.02115,115.01696,114.15622,115.01439</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>-61.00946,-60.9179,-61.661530000000006,-61.29339</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -6492,12 +6468,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -6622,17 +6598,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>83208.csv</t>
+          <t>74004.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-20666-0-83208</t>
+          <t>0-20888-0-74004.csv</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6645,7 +6621,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>83208</t>
+          <t>74004.csv</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6673,8 +6649,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>-114.0,114.0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>32.5,32.5</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -6682,12 +6666,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240301</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -6812,7 +6796,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>82244.csv</t>
+          <t>83378.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6822,7 +6806,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-20666-0-82244</t>
+          <t>0-20666-0-83378.csv</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6835,7 +6819,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>82244</t>
+          <t>83378.csv</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6872,12 +6856,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -7002,7 +6986,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>83612.csv</t>
+          <t>74494.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7012,7 +6996,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-20666-0-83612</t>
+          <t>0-20666-0-74494.csv</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7025,7 +7009,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>83612</t>
+          <t>74494.csv</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -7062,12 +7046,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -7192,7 +7176,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>72469.csv</t>
+          <t>42101.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7202,7 +7186,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-20666-0-72469</t>
+          <t>0-20666-0-42101.csv</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7215,7 +7199,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>72469</t>
+          <t>42101.csv</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7252,12 +7236,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240301</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -7382,17 +7366,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>83378.csv</t>
+          <t>37011.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-20666-0-83378</t>
+          <t>0-20888-0-37011.csv</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7405,7 +7389,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>83378</t>
+          <t>37011.csv</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7433,8 +7417,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>39.033,nan</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>44.010000000000005,nan</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -7442,12 +7434,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -7572,7 +7564,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>74494.csv</t>
+          <t>71836.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7582,7 +7574,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-20666-0-74494</t>
+          <t>0-20666-0-71836.csv</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7595,7 +7587,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>74494</t>
+          <t>71836.csv</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7632,12 +7624,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20161005</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -7762,17 +7754,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>83899.csv</t>
+          <t>42622.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-20666-0-83899</t>
+          <t>0-20888-0-42622.csv</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7785,7 +7777,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>83899</t>
+          <t>42622.csv</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -7813,8 +7805,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>25.880000000000003</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -7822,12 +7822,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20240206</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240211</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-20666-0-72214</t>
+          <t>0-20666-0-72214.csv</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>72214</t>
+          <t>72214.csv</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -8012,12 +8012,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>20240302</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>74004.csv</t>
+          <t>15420.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-20666-0-74004</t>
+          <t>0-20666-0-15420.csv</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>74004</t>
+          <t>15420.csv</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8202,12 +8202,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>48820.csv</t>
+          <t>42971.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-20666-0-48820</t>
+          <t>0-20666-0-42971.csv</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>48820</t>
+          <t>42971.csv</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8392,12 +8392,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141007</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240302</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>42101.csv</t>
+          <t>43041.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-20666-0-42101</t>
+          <t>0-20666-0-43041.csv</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>42101</t>
+          <t>43041.csv</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141020</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>42622.csv</t>
+          <t>23802.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-20888-0-42622</t>
+          <t>0-20888-0-23802.csv</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>42622</t>
+          <t>23802.csv</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8765,12 +8765,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>50.78595000000001,nan</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>25.880000000000003</t>
+          <t>61.676820000000006,nan</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -8780,12 +8780,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -8910,17 +8910,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>71836.csv</t>
+          <t>88889.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-20666-0-71836</t>
+          <t>0-20888-0-88889.csv</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>71836</t>
+          <t>88889.csv</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8961,8 +8961,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>-58.44805,-58.43300000000001,-58.45,-58.45,-58.447230000000005</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>-51.82000000000001,-51.167,-51.82000000000001,-51.81,-51.82278</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -8970,12 +8978,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2016-10-05</t>
+          <t>20240302</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -9100,17 +9108,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15420.csv</t>
+          <t>34882.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-20666-0-15420</t>
+          <t>0-20888-0-34882.csv</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9123,7 +9131,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15420</t>
+          <t>34882.csv</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -9151,8 +9159,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>47.97167,nan</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>46.29083000000001,nan</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9160,12 +9176,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -9290,17 +9306,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>42971.csv</t>
+          <t>63985.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-20666-0-42971</t>
+          <t>0-20888-0-63985.csv</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9313,7 +9329,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>42971</t>
+          <t>63985.csv</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -9341,8 +9357,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>55.530800000000006,50.6</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-4.67905,-4.32667</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9350,12 +9374,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -9480,17 +9504,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>72659.csv</t>
+          <t>89062.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-20777-0-72659</t>
+          <t>0-20666-0-89062.csv</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9503,7 +9527,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>72659</t>
+          <t>89062.csv</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9531,16 +9555,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>[98.41278, -98.43]</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>[45.46, 45.45]</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9548,12 +9564,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141003</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -9678,17 +9694,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>43041.csv</t>
+          <t>61901.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-20666-0-43041</t>
+          <t>0-20888-0-61901.csv</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9701,7 +9717,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>43041</t>
+          <t>61901.csv</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9729,8 +9745,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-5.66722,-5.65,-5.66,-5.666670000000001,-5.6675</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-15.94194,-15.567000000000002,-15.93,-15.933330000000002,-15.942000000000002</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9738,12 +9762,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2014-10-20</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240302</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -9868,17 +9892,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>88889.csv</t>
+          <t>25913.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-20666-0-88889</t>
+          <t>0-20888-0-25913.csv</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9891,7 +9915,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>88889</t>
+          <t>25913.csv</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -9919,8 +9943,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>150.78333,150.71666000000002</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>59.55,59.900000000000006</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9928,12 +9960,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20151101</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10058,17 +10090,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>89062.csv</t>
+          <t>72388.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-20666-0-89062</t>
+          <t>0-20888-0-72388.csv</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10081,7 +10113,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>89062</t>
+          <t>72388.csv</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -10109,8 +10141,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>nan,-115.1847</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>nan,36.04706</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -10118,12 +10158,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2014-10-03</t>
+          <t>20160426</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -10248,17 +10288,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>63985.csv</t>
+          <t>42111.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-20777-0-63985</t>
+          <t>0-20666-0-42111.csv</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10271,7 +10311,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>63985</t>
+          <t>42111.csv</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -10299,16 +10339,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>[55.530800000000006, 50.6]</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>[-4.32667, -4.67905]</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -10316,12 +10348,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2015-11-01</t>
+          <t>20141007</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240302</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -10446,17 +10478,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>61901.csv</t>
+          <t>42874.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-20666-0-61901</t>
+          <t>0-20888-0-42874.csv</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10469,7 +10501,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>61901</t>
+          <t>42874.csv</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -10497,8 +10529,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>81.65,nan,81.65</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>21.23,nan,21.23333</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -10506,12 +10546,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -10636,17 +10676,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>25913.csv</t>
+          <t>17064.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-20777-0-25913</t>
+          <t>0-20666-0-17064.csv</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10659,7 +10699,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>25913</t>
+          <t>17064.csv</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10687,16 +10727,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>[150.78333, 150.71666000000002]</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>[59.900000000000006, 59.55]</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -10704,12 +10736,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2015-11-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -10834,7 +10866,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>42111.csv</t>
+          <t>43003.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10844,7 +10876,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-20666-0-42111</t>
+          <t>0-20666-0-43003.csv</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10857,7 +10889,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>42111</t>
+          <t>43003.csv</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -10894,12 +10926,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>20141002</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -11024,7 +11056,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>17064.csv</t>
+          <t>07145.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11034,7 +11066,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-20666-0-17064</t>
+          <t>0-20666-0-07145.csv</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -11047,7 +11079,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17064</t>
+          <t>07145.csv</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -11084,12 +11116,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -11214,7 +11246,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>43003.csv</t>
+          <t>71603.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11224,7 +11256,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-20666-0-43003</t>
+          <t>0-20666-0-71603.csv</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -11237,7 +11269,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>43003</t>
+          <t>71603.csv</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -11274,12 +11306,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -11404,17 +11436,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>71603.csv</t>
+          <t>72662.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-20666-0-71603</t>
+          <t>0-20888-0-72662.csv</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11427,7 +11459,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>71603</t>
+          <t>72662.csv</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -11455,8 +11487,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>-103.2,-103.21027,-103.05,-103.21,103.2</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>44.66667,44.07301,44.05,44.07,44.66667</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -11464,12 +11504,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -11594,7 +11634,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07145.csv</t>
+          <t>42348.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11604,7 +11644,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-20666-0-07145</t>
+          <t>0-20666-0-42348.csv</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11617,7 +11657,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>7145</t>
+          <t>42348.csv</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -11654,12 +11694,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141006</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -11784,7 +11824,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>42348.csv</t>
+          <t>43333.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11794,7 +11834,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-20666-0-42348</t>
+          <t>0-20666-0-43333.csv</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -11807,7 +11847,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>42348</t>
+          <t>43333.csv</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -11844,12 +11884,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2014-10-06</t>
+          <t>20141007</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -11974,17 +12014,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>72662.csv</t>
+          <t>47230.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-20666-0-72662</t>
+          <t>0-20888-0-47230.csv</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11997,7 +12037,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>72662</t>
+          <t>47230.csv</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -12025,8 +12065,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>126.10238</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>37.26342</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12034,12 +12082,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20240204</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -12164,7 +12212,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>43333.csv</t>
+          <t>71722.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12174,7 +12222,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-20666-0-43333</t>
+          <t>0-20666-0-71722.csv</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -12187,7 +12235,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>43333</t>
+          <t>71722.csv</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -12224,12 +12272,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -12354,17 +12402,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>47230.csv</t>
+          <t>71802.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-20888-0-47230</t>
+          <t>0-20666-0-71802.csv</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -12377,7 +12425,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>47230</t>
+          <t>71802.csv</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -12405,16 +12453,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>126.10238</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>37.26342</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12422,12 +12462,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -12552,7 +12592,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>71722.csv</t>
+          <t>08160.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -12562,7 +12602,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-20666-0-71722</t>
+          <t>0-20666-0-08160.csv</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -12575,7 +12615,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>71722</t>
+          <t>08160.csv</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -12612,12 +12652,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20151030</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -12742,7 +12782,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>71802.csv</t>
+          <t>60018.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -12752,7 +12792,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-20666-0-71802</t>
+          <t>0-20666-0-60018.csv</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -12765,7 +12805,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>71802</t>
+          <t>60018.csv</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -12802,12 +12842,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240303</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -12932,7 +12972,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>94302.csv</t>
+          <t>UNKNOWN.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12942,7 +12982,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-20666-0-94302</t>
+          <t>0-20666-0-UNKNOWN.csv</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -12955,7 +12995,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>94302</t>
+          <t>UNKNOWN.csv</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -12992,12 +13032,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>20141001</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>20240304</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -13111,576 +13151,6 @@
         </is>
       </c>
       <c r="AN66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>08160.csv</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>COORDINATE_ISSUES</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0-20666-0-08160</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>66</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>8160</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>2014-10-01</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>2015-10-30</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF67" t="inlineStr">
-        <is>
-          <t>['126', '137', '106', '107', '117']</t>
-        </is>
-      </c>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>60018.csv</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>COORDINATE_ISSUES</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0-20666-0-60018</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>67</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>60018</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>2014-10-01</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>2024-03-03</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>['126', '137', '106', '107', '117']</t>
-        </is>
-      </c>
-      <c r="AG68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>UNKNOWN.csv</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>COORDINATE_ISSUES</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0-20666-0-UNKNOWN</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>68</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>2014-10-01</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF69" t="inlineStr">
-        <is>
-          <t>['126', '137', '106', '107', '117']</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN69" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
